--- a/RA Bart Organizational Behavior.xlsx
+++ b/RA Bart Organizational Behavior.xlsx
@@ -447,13 +447,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -510,6 +523,1131 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10356</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10355</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10354</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10352</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lee, Cynthia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10351</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>12640</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Heskiau, Ravit</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>12644</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Spencer, Denise</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>12643</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12642</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12641</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Shechterman, Yana</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>12728</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12729</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>12909</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>13206</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>13453</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Heskiau, Ravit</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior (HON)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>13604</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>13980</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>13981</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>13982</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Robertson, Michelle</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>13983</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>14206</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>14965</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>11250</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>11251</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>13603</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>23</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -523,13 +1661,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -586,6 +1737,951 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30502</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30489</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30488</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liao, Zhenyu</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30487</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Heskiau, Ravit</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30486</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sugiyama, Keimei</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30484</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liao, Zhenyu</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>32430</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>32431</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liao, Zhenyu</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32432</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sugiyama, Keimei</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>32433</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Shechterman, Yana</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>32434</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>32435</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>32436</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32437</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>32560</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Robertson, Michelle</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>33028</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>33222</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>33223</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31246</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>26</v>
+      </c>
+      <c r="K20" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>31247</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>31248</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -599,13 +2695,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -662,6 +2771,1176 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10335</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Heskiau, Ravit</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10334</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Heskiau, Ravit</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10333</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10331</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lee, Cynthia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10330</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>12302</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>12306</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>12305</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12304</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12303</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>12363</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Heskiau, Ravit</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12364</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>12502</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>12758</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>12962</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior (HON)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>13095</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>13398</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ladge, Jamie</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>13399</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>13400</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>13401</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Robertson, Michelle</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>13570</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>14145</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D24" t="n">
+        <v>27</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>19599</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Shechterman, Yana</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>19678</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>11139</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>16</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>11140</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -682,6 +3961,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -758,6 +4050,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1817,13 +5122,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1880,6 +5198,1086 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30690</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30671</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30670</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Baskerville, Marla</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30669</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cojuharenco, Irina</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30668</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Baskerville, Marla</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30666</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>34305</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Huttner, Richard</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>34306</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>34307</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vroman, Susan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior (HON)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>34308</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>34309</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cojuharenco, Irina</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>34310</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>34311</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>34312</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Anderson, Daun</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>34663</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dejordy, Richard</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>36059</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>36883</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Thoroughgood, Christian</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>36884</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Econoply-Woodnick, Pamela</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>36885</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>37062</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cojuharenco, Irina</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>37463</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>31836</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Payne, Adam</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>31837</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Anderson, Daun</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>31838</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Anderson, Daun</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1900,6 +6298,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3229,13 +7640,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3292,6 +7716,1221 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30664</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30645</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30644</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30643</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30642</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30640</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>33937</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33938</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>33939</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior (HON)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>33940</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Raelin, Joseph</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>33941</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cojuharenco, Irina</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>33942</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Anderson, Daun</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>17</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>33943</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Anderson, Daun</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>33944</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cojuharenco, Irina</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>34246</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>35187</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Vroman, Susan</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>35762</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>35763</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Anderson, Daun</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>37641</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>37640</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>37639</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Dejordy, Richard</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>37647</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Odom, Curtis</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>37664</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>38407</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>31732</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>31733</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>31734</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3312,6 +8951,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4686,13 +10338,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4749,6 +10414,1131 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30587</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30570</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30569</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30568</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30565</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>33125</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Robertson, Michelle</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>33127</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33128</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>33129</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vroman, Susan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>33130</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>33131</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>33132</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>33305</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>33935</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Baskerville, Marla</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>34245</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Katz, Ralph</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>34246</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>35356</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Baskerville, Marla</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>35355</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>35362</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>35377</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>36076</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>36974</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>31511</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Saunders, Natascha</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>16</v>
+      </c>
+      <c r="K24" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>31512</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>17</v>
+      </c>
+      <c r="K25" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>31513</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4769,6 +11559,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6053,13 +12856,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6116,6 +12932,1041 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30552</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30537</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30536</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30535</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30534</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bannister, Brendan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30532</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>McAllister, Charn</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>32759</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Baskerville, Marla</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>32760</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32761</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Stybel, Laurence</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>32762</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Glick, Leonard</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>32763</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Larson, Barbara</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>32764</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ellen, Bruce</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>32765</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Albano, Sondra</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32766</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>32913</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Steere, Robert</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>33434</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>33676</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Gregory-Mina, Heidi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>33677</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Robertson, Michelle</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>34400</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Aksehirli, Zeynep</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>34399</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>McCarty, Paulette</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>31403</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>31404</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>23</v>
+      </c>
+      <c r="K23" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Organizational Behavior</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>31405</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>King, Christopher</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
